--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ACD/20/seed4/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ACD/20/seed4/result_data_KNN.xlsx
@@ -539,7 +539,7 @@
         <v>-15.25</v>
       </c>
       <c r="D6" t="n">
-        <v>-8.693999999999999</v>
+        <v>-8.206</v>
       </c>
       <c r="E6" t="n">
         <v>16.12</v>
@@ -553,7 +553,7 @@
         <v>9.43</v>
       </c>
       <c r="C7" t="n">
-        <v>-11.854</v>
+        <v>-12.666</v>
       </c>
       <c r="D7" t="n">
         <v>-9.359999999999999</v>
@@ -581,7 +581,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-21.752</v>
+        <v>-21.819</v>
       </c>
       <c r="B9" t="n">
         <v>4.86</v>
@@ -638,7 +638,7 @@
         <v>4.54</v>
       </c>
       <c r="C12" t="n">
-        <v>-10.372</v>
+        <v>-11.555</v>
       </c>
       <c r="D12" t="n">
         <v>-6.85</v>
@@ -649,7 +649,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-22.41</v>
+        <v>-22.114</v>
       </c>
       <c r="B13" t="n">
         <v>4.02</v>
@@ -672,7 +672,7 @@
         <v>4.04</v>
       </c>
       <c r="C14" t="n">
-        <v>-13.736</v>
+        <v>-12.369</v>
       </c>
       <c r="D14" t="n">
         <v>-7.43</v>
@@ -692,7 +692,7 @@
         <v>-13.12</v>
       </c>
       <c r="D15" t="n">
-        <v>-8.529999999999999</v>
+        <v>-8.306000000000001</v>
       </c>
       <c r="E15" t="n">
         <v>16.67</v>
@@ -700,7 +700,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-21.83</v>
+        <v>-21.954</v>
       </c>
       <c r="B16" t="n">
         <v>3.96</v>
@@ -734,7 +734,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.078</v>
+        <v>-21.99</v>
       </c>
       <c r="B18" t="n">
         <v>4.35</v>
@@ -757,7 +757,7 @@
         <v>11.01</v>
       </c>
       <c r="C19" t="n">
-        <v>-12.016</v>
+        <v>-12.404</v>
       </c>
       <c r="D19" t="n">
         <v>-7.9</v>
@@ -768,7 +768,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-21.046</v>
+        <v>-20.195</v>
       </c>
       <c r="B20" t="n">
         <v>10.19</v>
@@ -870,13 +870,13 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-21.376</v>
+        <v>-21.663</v>
       </c>
       <c r="B26" t="n">
         <v>6.56</v>
       </c>
       <c r="C26" t="n">
-        <v>-12.908</v>
+        <v>-13.456</v>
       </c>
       <c r="D26" t="n">
         <v>-9.31</v>
@@ -887,13 +887,13 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-21.718</v>
+        <v>-21.78</v>
       </c>
       <c r="B27" t="n">
         <v>5.54</v>
       </c>
       <c r="C27" t="n">
-        <v>-13.89</v>
+        <v>-13.038</v>
       </c>
       <c r="D27" t="n">
         <v>-8.550000000000001</v>
@@ -913,7 +913,7 @@
         <v>-11.8</v>
       </c>
       <c r="D28" t="n">
-        <v>-8.536</v>
+        <v>-8.314</v>
       </c>
       <c r="E28" t="n">
         <v>16.42</v>
@@ -921,13 +921,13 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-21.928</v>
+        <v>-21.265</v>
       </c>
       <c r="B29" t="n">
         <v>7.52</v>
       </c>
       <c r="C29" t="n">
-        <v>-12.106</v>
+        <v>-12.119</v>
       </c>
       <c r="D29" t="n">
         <v>-7.09</v>
@@ -998,7 +998,7 @@
         <v>-12.22</v>
       </c>
       <c r="D33" t="n">
-        <v>-7.470000000000001</v>
+        <v>-7.475</v>
       </c>
       <c r="E33" t="n">
         <v>17.52</v>
@@ -1023,7 +1023,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>-19.684</v>
+        <v>-19.732</v>
       </c>
       <c r="B35" t="n">
         <v>10.18</v>
@@ -1032,7 +1032,7 @@
         <v>-13.02</v>
       </c>
       <c r="D35" t="n">
-        <v>-7.496</v>
+        <v>-7.589</v>
       </c>
       <c r="E35" t="n">
         <v>15.78</v>
@@ -1040,7 +1040,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-20.474</v>
+        <v>-20.617</v>
       </c>
       <c r="B36" t="n">
         <v>9.84</v>
@@ -1063,7 +1063,7 @@
         <v>9.41</v>
       </c>
       <c r="C37" t="n">
-        <v>-13.198</v>
+        <v>-12.654</v>
       </c>
       <c r="D37" t="n">
         <v>-7.88</v>
@@ -1080,10 +1080,10 @@
         <v>9.66</v>
       </c>
       <c r="C38" t="n">
-        <v>-13.794</v>
+        <v>-13.321</v>
       </c>
       <c r="D38" t="n">
-        <v>-7.972</v>
+        <v>-7.970999999999999</v>
       </c>
       <c r="E38" t="n">
         <v>15.23</v>
@@ -1168,7 +1168,7 @@
         <v>-11.77</v>
       </c>
       <c r="D43" t="n">
-        <v>-8.114000000000001</v>
+        <v>-7.67</v>
       </c>
       <c r="E43" t="n">
         <v>16.64</v>
@@ -1185,7 +1185,7 @@
         <v>-10.47</v>
       </c>
       <c r="D44" t="n">
-        <v>-8.104000000000001</v>
+        <v>-7.619</v>
       </c>
       <c r="E44" t="n">
         <v>16.52</v>
@@ -1193,7 +1193,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>-21.452</v>
+        <v>-21.553</v>
       </c>
       <c r="B45" t="n">
         <v>5.73</v>
@@ -1202,7 +1202,7 @@
         <v>-11</v>
       </c>
       <c r="D45" t="n">
-        <v>-8.388</v>
+        <v>-7.692000000000002</v>
       </c>
       <c r="E45" t="n">
         <v>16.85</v>
@@ -1233,10 +1233,10 @@
         <v>6.74</v>
       </c>
       <c r="C47" t="n">
-        <v>-11.562</v>
+        <v>-11.34</v>
       </c>
       <c r="D47" t="n">
-        <v>-7.340000000000001</v>
+        <v>-7.331</v>
       </c>
       <c r="E47" t="n">
         <v>17.05</v>
@@ -1301,10 +1301,10 @@
         <v>4.98</v>
       </c>
       <c r="C51" t="n">
-        <v>-12.218</v>
+        <v>-12.405</v>
       </c>
       <c r="D51" t="n">
-        <v>-7.178</v>
+        <v>-7.556</v>
       </c>
       <c r="E51" t="n">
         <v>17.2</v>
@@ -1318,7 +1318,7 @@
         <v>6.39</v>
       </c>
       <c r="C52" t="n">
-        <v>-11.322</v>
+        <v>-11.642</v>
       </c>
       <c r="D52" t="n">
         <v>-6.93</v>
@@ -1355,7 +1355,7 @@
         <v>-13.87</v>
       </c>
       <c r="D54" t="n">
-        <v>-7.778</v>
+        <v>-8.418000000000001</v>
       </c>
       <c r="E54" t="n">
         <v>15.77</v>
@@ -1363,13 +1363,13 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-21.554</v>
+        <v>-21.8</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
       </c>
       <c r="C55" t="n">
-        <v>-12.376</v>
+        <v>-12.879</v>
       </c>
       <c r="D55" t="n">
         <v>-10.06</v>
@@ -1397,7 +1397,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-22.01</v>
+        <v>-22.139</v>
       </c>
       <c r="B57" t="n">
         <v>4.82</v>
@@ -1406,7 +1406,7 @@
         <v>-15.01</v>
       </c>
       <c r="D57" t="n">
-        <v>-8.542</v>
+        <v>-8.117000000000001</v>
       </c>
       <c r="E57" t="n">
         <v>16.41</v>
@@ -1491,7 +1491,7 @@
         <v>-14.53</v>
       </c>
       <c r="D62" t="n">
-        <v>-7.875999999999999</v>
+        <v>-7.784999999999999</v>
       </c>
       <c r="E62" t="n">
         <v>16.65</v>
@@ -1508,7 +1508,7 @@
         <v>-9.970000000000001</v>
       </c>
       <c r="D63" t="n">
-        <v>-7.109999999999999</v>
+        <v>-7.832000000000001</v>
       </c>
       <c r="E63" t="n">
         <v>16.71</v>
@@ -1576,7 +1576,7 @@
         <v>-10.67</v>
       </c>
       <c r="D67" t="n">
-        <v>-7.037999999999999</v>
+        <v>-7.343000000000001</v>
       </c>
       <c r="E67" t="n">
         <v>18.14</v>
@@ -1601,13 +1601,13 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.668</v>
+        <v>-21.862</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
       </c>
       <c r="C69" t="n">
-        <v>-10.666</v>
+        <v>-11.78</v>
       </c>
       <c r="D69" t="n">
         <v>-6.88</v>
@@ -1624,10 +1624,10 @@
         <v>4.05</v>
       </c>
       <c r="C70" t="n">
-        <v>-13.926</v>
+        <v>-12.579</v>
       </c>
       <c r="D70" t="n">
-        <v>-7.474000000000001</v>
+        <v>-7.746</v>
       </c>
       <c r="E70" t="n">
         <v>17.62</v>
@@ -1720,13 +1720,13 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-19.566</v>
+        <v>-20.356</v>
       </c>
       <c r="B76" t="n">
         <v>9.23</v>
       </c>
       <c r="C76" t="n">
-        <v>-12.624</v>
+        <v>-13.244</v>
       </c>
       <c r="D76" t="n">
         <v>-7.88</v>
@@ -1754,7 +1754,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-19.62</v>
+        <v>-19.854</v>
       </c>
       <c r="B78" t="n">
         <v>9.640000000000001</v>
@@ -1811,10 +1811,10 @@
         <v>3.85</v>
       </c>
       <c r="C81" t="n">
-        <v>-13.926</v>
+        <v>-12.44</v>
       </c>
       <c r="D81" t="n">
-        <v>-7.722</v>
+        <v>-7.763</v>
       </c>
       <c r="E81" t="n">
         <v>17.6</v>
@@ -1822,7 +1822,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-22.398</v>
+        <v>-22.141</v>
       </c>
       <c r="B82" t="n">
         <v>5.26</v>
@@ -1839,13 +1839,13 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-21.594</v>
+        <v>-21.777</v>
       </c>
       <c r="B83" t="n">
         <v>5.84</v>
       </c>
       <c r="C83" t="n">
-        <v>-12.352</v>
+        <v>-12.922</v>
       </c>
       <c r="D83" t="n">
         <v>-7.67</v>
@@ -1933,7 +1933,7 @@
         <v>-14.65</v>
       </c>
       <c r="D88" t="n">
-        <v>-8.242000000000001</v>
+        <v>-7.972999999999999</v>
       </c>
       <c r="E88" t="n">
         <v>17.32</v>
@@ -2009,7 +2009,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-21.928</v>
+        <v>-21.561</v>
       </c>
       <c r="B93" t="n">
         <v>7.55</v>
@@ -2032,7 +2032,7 @@
         <v>4.26</v>
       </c>
       <c r="C94" t="n">
-        <v>-11.298</v>
+        <v>-11.55</v>
       </c>
       <c r="D94" t="n">
         <v>-5.14</v>
@@ -2069,7 +2069,7 @@
         <v>-10.59</v>
       </c>
       <c r="D96" t="n">
-        <v>-8.35</v>
+        <v>-7.927</v>
       </c>
       <c r="E96" t="n">
         <v>16.3</v>
@@ -2077,7 +2077,7 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>-22.238</v>
+        <v>-22.053</v>
       </c>
       <c r="B97" t="n">
         <v>5.08</v>
@@ -2120,7 +2120,7 @@
         <v>-15.77</v>
       </c>
       <c r="D99" t="n">
-        <v>-7.762</v>
+        <v>-8.103999999999999</v>
       </c>
       <c r="E99" t="n">
         <v>16.01</v>
@@ -2134,7 +2134,7 @@
         <v>5.09</v>
       </c>
       <c r="C100" t="n">
-        <v>-12.866</v>
+        <v>-13.327</v>
       </c>
       <c r="D100" t="n">
         <v>-7.71</v>
@@ -2168,7 +2168,7 @@
         <v>9.01</v>
       </c>
       <c r="C102" t="n">
-        <v>-12.752</v>
+        <v>-12.927</v>
       </c>
       <c r="D102" t="n">
         <v>-8.630000000000001</v>
